--- a/biology/Zoologie/Eleutherodactylus_varians/Eleutherodactylus_varians.xlsx
+++ b/biology/Zoologie/Eleutherodactylus_varians/Eleutherodactylus_varians.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eleutherodactylus varians est une espèce d'amphibiens de la famille des Eleutherodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eleutherodactylus varians est une espèce d'amphibiens de la famille des Eleutherodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Cuba[1]. Elle se rencontre dans les provinces de Camagüey, de Sancti Spíritus, de Villa Clara, de Cienfuegos, de Matanzas, de Mayabeque, d'Artemisa, de Pinar del Río et de l'île de la Jeunesse du niveau de la mer jusqu'à 845 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Cuba. Elle se rencontre dans les provinces de Camagüey, de Sancti Spíritus, de Villa Clara, de Cienfuegos, de Matanzas, de Mayabeque, d'Artemisa, de Pinar del Río et de l'île de la Jeunesse du niveau de la mer jusqu'à 845 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1864 : Berichtete über einige neue Säugethiere (Mormops, Macotus, Vesperus, Molossus, Capromys), Amphibien (Platydactylus, Otocryptis, Euprepes, Ungalia, Dromicus, Tropidonotus, Xenodon, Hylodes) und Fische (Sillago, Sebastes, Channa, Myctophum, Carassius, Barbus, Capoeta, Poecilia, Saurenchelys, Leptocephalus). Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1864, p. 381-399 (texte intégral).</t>
         </is>
